--- a/src/main/resources/excel/xinma.xlsx
+++ b/src/main/resources/excel/xinma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,13 @@
   </si>
   <si>
     <t>10.16.60.123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人新马WEB-001服</t>
+  </si>
+  <si>
+    <t>10.16.60.45</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +122,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -162,13 +176,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,7 +535,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -532,7 +549,7 @@
         <v>37001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -546,7 +563,7 @@
         <v>37002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -560,7 +577,7 @@
         <v>37003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -574,7 +591,7 @@
         <v>37004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -588,7 +605,7 @@
         <v>37005</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -600,6 +617,20 @@
       </c>
       <c r="D8">
         <v>37006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>3306</v>
+      </c>
+      <c r="D9">
+        <v>37007</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/xinma.xlsx
+++ b/src/main/resources/excel/xinma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,13 +90,49 @@
   <si>
     <t>10.16.60.45</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoye</t>
+  </si>
+  <si>
+    <t>baseServerId</t>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>不良人新马WEB-002服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人新马WEB-003服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人新马WEB-004服</t>
+  </si>
+  <si>
+    <t>10.16.60.143</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +165,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -176,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -185,6 +229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,9 +549,11 @@
     <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +569,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -534,8 +595,20 @@
       <c r="D2">
         <v>37000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -548,8 +621,20 @@
       <c r="D3">
         <v>37001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -562,8 +647,20 @@
       <c r="D4">
         <v>37002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -576,8 +673,20 @@
       <c r="D5">
         <v>37003</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -590,8 +699,20 @@
       <c r="D6">
         <v>37004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -604,8 +725,20 @@
       <c r="D7">
         <v>37005</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -618,8 +751,20 @@
       <c r="D8">
         <v>37006</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -631,6 +776,96 @@
       </c>
       <c r="D9">
         <v>37007</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>3306</v>
+      </c>
+      <c r="D10">
+        <v>37008</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>3306</v>
+      </c>
+      <c r="D11">
+        <v>37009</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>3306</v>
+      </c>
+      <c r="D12">
+        <v>37010</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
